--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:06:00+01:00</t>
+    <t>2023-12-13T11:11:11+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:11:11+01:00</t>
+    <t>2023-12-13T11:17:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -264,7 +264,7 @@
 </t>
   </si>
   <si>
-    <t>Start og slut tispunkt for første ledige slot og siste ledige slot i timebok.</t>
+    <t>Start tidspunkt for første ledige slot og slutt tidspunkt for siste ledige slot i timebok.</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:17:26+01:00</t>
+    <t>2023-12-13T16:08:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:08:28+01:00</t>
+    <t>2023-12-13T16:14:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:14:30+01:00</t>
+    <t>2023-12-13T17:25:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:25:33+01:00</t>
+    <t>2023-12-13T17:36:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:36:01+01:00</t>
+    <t>2023-12-14T00:07:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:07:25+01:00</t>
+    <t>2023-12-14T00:17:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -295,7 +295,7 @@
     <t>Extension.extension:firstFreeSlot.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Slot)
+    <t xml:space="preserve">Reference(Slot|http://helsenorge.no/fhir/StructureDefinition/hn-basis-slot)
 </t>
   </si>
   <si>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:17:30+01:00</t>
+    <t>2023-12-14T00:31:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:31:44+01:00</t>
+    <t>2023-12-14T15:10:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T15:10:19+01:00</t>
+    <t>2024-06-09T15:34:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-09T15:34:44+02:00</t>
+    <t>2024-06-12T14:59:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T23:06:55+01:00</t>
+    <t>2024-11-07T10:16:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:16:17+01:00</t>
+    <t>2024-11-07T10:24:13+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:24:13+01:00</t>
+    <t>2024-11-07T10:34:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:34:59+01:00</t>
+    <t>2025-02-07T15:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:58:52+01:00</t>
+    <t>2025-02-12T12:09:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T12:09:01+01:00</t>
+    <t>2025-02-12T17:25:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T17:25:34+01:00</t>
+    <t>2025-02-13T07:45:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T07:45:06+01:00</t>
+    <t>2025-02-21T16:49:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T16:49:26+01:00</t>
+    <t>2025-02-22T02:39:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T02:39:46+01:00</t>
+    <t>2025-02-22T03:24:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:24:26+01:00</t>
+    <t>2025-02-22T03:36:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:36:49+01:00</t>
+    <t>2025-02-22T03:45:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:45:56+01:00</t>
+    <t>2025-02-22T03:55:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:55:28+01:00</t>
+    <t>2025-02-22T04:12:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T04:12:23+01:00</t>
+    <t>2025-02-22T05:08:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:08:06+01:00</t>
+    <t>2025-02-22T05:29:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:29:40+01:00</t>
+    <t>2025-03-16T11:47:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T11:47:10+01:00</t>
+    <t>2025-03-16T12:58:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T12:58:55+01:00</t>
+    <t>2025-03-16T13:18:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T13:18:55+01:00</t>
+    <t>2025-03-26T11:34:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T11:34:28+01:00</t>
+    <t>2025-05-28T01:07:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T01:07:52+02:00</t>
+    <t>2025-05-28T02:05:36+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T02:05:36+02:00</t>
+    <t>2025-05-29T20:33:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:33:03+02:00</t>
+    <t>2025-05-29T20:44:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:44:52+02:00</t>
+    <t>2025-07-07T00:15:54+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -313,9 +313,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Extension.extension:freePlanningHorizon</t>
   </si>
   <si>
@@ -360,6 +357,9 @@
   </si>
   <si>
     <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Extension.extension:freePlanningHorizon.value[x]</t>
@@ -1215,24 +1215,24 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>73</v>
@@ -1245,7 +1245,7 @@
         <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>73</v>
@@ -1260,7 +1260,7 @@
         <v>27</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1320,7 +1320,7 @@
         <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -1331,10 +1331,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1434,10 +1434,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1466,7 +1466,7 @@
         <v>27</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1526,7 +1526,7 @@
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>78</v>
@@ -1537,10 +1537,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1563,16 +1563,16 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>73</v>
@@ -1622,22 +1622,22 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="9" hidden="true">
@@ -1734,13 +1734,13 @@
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>118</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" hidden="true">
@@ -1764,7 +1764,7 @@
         <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>73</v>
@@ -1779,7 +1779,7 @@
         <v>27</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1839,7 +1839,7 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -1853,7 +1853,7 @@
         <v>121</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1956,7 +1956,7 @@
         <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1985,7 +1985,7 @@
         <v>27</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2045,7 +2045,7 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
@@ -2059,7 +2059,7 @@
         <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2082,16 +2082,16 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2141,22 +2141,22 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -2253,13 +2253,13 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>118</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" hidden="true">
@@ -2283,7 +2283,7 @@
         <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>73</v>
@@ -2298,7 +2298,7 @@
         <v>27</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2358,7 +2358,7 @@
         <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>78</v>
@@ -2372,7 +2372,7 @@
         <v>129</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2475,7 +2475,7 @@
         <v>130</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2504,7 +2504,7 @@
         <v>27</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2564,7 +2564,7 @@
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>78</v>
@@ -2578,7 +2578,7 @@
         <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2601,16 +2601,16 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2660,22 +2660,22 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="19" hidden="true">
@@ -2772,21 +2772,21 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>118</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2809,16 +2809,16 @@
         <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -2868,22 +2868,22 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="21" hidden="true">
@@ -2980,13 +2980,13 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>118</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:15:54+02:00</t>
+    <t>2025-07-07T00:32:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:32:38+02:00</t>
+    <t>2025-07-07T08:59:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T08:59:22+02:00</t>
+    <t>2025-09-28T17:18:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-28T17:18:13+02:00</t>
+    <t>2025-09-29T11:26:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:26:30+02:00</t>
+    <t>2025-09-29T11:54:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:54:59+02:00</t>
+    <t>2025-09-29T13:11:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.1</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:11:32+02:00</t>
+    <t>2025-09-29T13:18:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-free-slot-planningHorizon.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:18:42+02:00</t>
+    <t>2025-10-01T13:36:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
